--- a/biology/Botanique/Orgeat/Orgeat.xlsx
+++ b/biology/Botanique/Orgeat/Orgeat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orgeat est une boisson à base de lait d'amande, qui se boit allongée d'eau.
-Il aurait été inventé en Grèce antique [1] avant de se répandre dans le pourtour méditerranéen et d'être introduit et popularisé en France par la communauté pied-noirs[2].
-Autrefois, l'orgeat se préparait à partir d'une décoction d'orge et d'amandes[3]. Parfois, on ajoutait à l'orge des graines de melon et de concombre ainsi que des amandes douces pilées. C'est sans doute l'usage de ces dernières qui donna naissance à l'actuel orgeat. 
-Aujourd'hui, en France, l'orgeat est obtenu essentiellement par condensation du benzaldéhyde extrait des amandes amères. C'est ce qui donne un goût tout à fait analogue à celui de l'orzata italienne, boisson à base de benjoin, à ne pas confondre avec l'amaretto, alcool aromatisé à l'amande[4]. 
+Il aurait été inventé en Grèce antique  avant de se répandre dans le pourtour méditerranéen et d'être introduit et popularisé en France par la communauté pied-noirs.
+Autrefois, l'orgeat se préparait à partir d'une décoction d'orge et d'amandes. Parfois, on ajoutait à l'orge des graines de melon et de concombre ainsi que des amandes douces pilées. C'est sans doute l'usage de ces dernières qui donna naissance à l'actuel orgeat. 
+Aujourd'hui, en France, l'orgeat est obtenu essentiellement par condensation du benzaldéhyde extrait des amandes amères. C'est ce qui donne un goût tout à fait analogue à celui de l'orzata italienne, boisson à base de benjoin, à ne pas confondre avec l'amaretto, alcool aromatisé à l'amande. 
 Le sirop d'orgeat entre dans la composition de cocktails comme la mauresque ou le Mai Tai.
 </t>
         </is>
